--- a/resources/nfl_teams.xlsx
+++ b/resources/nfl_teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12163\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data Analytics Bootcamp\Data Analysis Homework\ETL-project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED86AD5-BF30-407A-96DF-6B53229D03B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E9C04-6214-43E3-BB5A-0307E78D18D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-20400" yWindow="1200" windowWidth="16800" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl_teams" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>nfl_teams</t>
   </si>
@@ -119,12 +119,15 @@
   </si>
   <si>
     <t>Washington Football Team</t>
+  </si>
+  <si>
+    <t>team_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,175 +961,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
